--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Country.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Country.xlsx
@@ -26,16 +26,1429 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Bolivia, Plurinational State of</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>BQ</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo, The Democratic Republic of the</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
     <t>EEA</t>
   </si>
   <si>
     <t>AA</t>
   </si>
   <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>AD</t>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Holy See (Vatican City State)</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic of</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Macedonia, The Former Yugoslav Republic of</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Non domestic, import</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>Non EEA</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>Non European Union</t>
+  </si>
+  <si>
+    <t>XE</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Palestinian Territory, Occupied</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan Da Cunha</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Saint Martin (French Part)</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Saint Pierre And Miquelon</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch Part)</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>South Georgia and The South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Svalbard And Jan Mayen</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Taiwan, Province of China</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Trinidad And Tobago</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UA</t>
   </si>
   <si>
     <t>United Arab Emirates</t>
@@ -44,322 +1457,76 @@
     <t>AE</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>AO</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>AQ</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>Aland Islands</t>
-  </si>
-  <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>BJ</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>BM</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>BN</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>BW</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>BY</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>BZ</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Cocos (Keeling) Islands</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CU</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>CX</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>DJ</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>DZ</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>EG</t>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>Venezuela, Bolivarian Republic of</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Virgin Islands, British</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>Virgin Islands, U.S.</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna Islands</t>
+  </si>
+  <si>
+    <t>WF</t>
   </si>
   <si>
     <t>Western Sahara</t>
@@ -368,897 +1535,12 @@
     <t>EH</t>
   </si>
   <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>European Union</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>FJ</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>FO</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>GH</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>GI</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>GN</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>GQ</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>GR</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>GU</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>GY</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>HN</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HT</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
-    <t>IO</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IQ</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>JM</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>JO</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>KE</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>KI</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>KZ</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>LI</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LK</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>LY</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>MH</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>MQ</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>MR</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>MV</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>MZ</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>NZ</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>Pitcairn</t>
-  </si>
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>PW</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>PY</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>SY</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>SZ</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>French Southern Territories</t>
-  </si>
-  <si>
-    <t>TF</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>TJ</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>TK</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>TL</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>Trinidad And Tobago</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>TV</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>UA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UG</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>UY</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>UZ</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>VU</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>WS</t>
-  </si>
-  <si>
-    <t>Non EEA</t>
-  </si>
-  <si>
-    <t>XC</t>
-  </si>
-  <si>
-    <t>Non domestic, import</t>
-  </si>
-  <si>
-    <t>XD</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
     <t>Yemen</t>
   </si>
   <si>
     <t>YE</t>
   </si>
   <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>YT</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
@@ -1269,288 +1551,6 @@
   </si>
   <si>
     <t>ZW</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>Bolivia, Plurinational State of</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>Bonaire, Sint Eustatius and Saba</t>
-  </si>
-  <si>
-    <t>BQ</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>BV</t>
-  </si>
-  <si>
-    <t>Congo, The Democratic Republic of the</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Malvinas)</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>South Georgia and The South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>HM</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
-    <t>IR</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>KN</t>
-  </si>
-  <si>
-    <t>Korea, Democratic People's Republic of</t>
-  </si>
-  <si>
-    <t>KP</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>Lao People's Democratic Republic</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Macedonia, The Former Yugoslav Republic of</t>
-  </si>
-  <si>
-    <t>MK</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>Saint Pierre And Miquelon</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Palestinian Territory, Occupied</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>Saint Helena, Ascension and Tristan Da Cunha</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Svalbard And Jan Mayen</t>
-  </si>
-  <si>
-    <t>SJ</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>Taiwan, Province of China</t>
-  </si>
-  <si>
-    <t>TW</t>
-  </si>
-  <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
-    <t>TZ</t>
-  </si>
-  <si>
-    <t>United States Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t>UM</t>
-  </si>
-  <si>
-    <t>Holy See (Vatican City State)</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>VC</t>
-  </si>
-  <si>
-    <t>Venezuela, Bolivarian Republic of</t>
-  </si>
-  <si>
-    <t>VE</t>
-  </si>
-  <si>
-    <t>Virgin Islands, British</t>
-  </si>
-  <si>
-    <t>VG</t>
-  </si>
-  <si>
-    <t>Virgin Islands, U.S.</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>VN</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna Islands</t>
-  </si>
-  <si>
-    <t>WF</t>
-  </si>
-  <si>
-    <t>Non European Union</t>
-  </si>
-  <si>
-    <t>XE</t>
-  </si>
-  <si>
-    <t>Saint Barthélemy</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
-    <t>CW</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>IM</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>JE</t>
-  </si>
-  <si>
-    <t>Saint Martin (French Part)</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>Sint Maarten (Dutch Part)</t>
-  </si>
-  <si>
-    <t>SX</t>
   </si>
 </sst>
 </file>
@@ -2478,197 +2478,197 @@
         <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C94"/>
       <c r="D94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95"/>
       <c r="D95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99"/>
       <c r="D99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100"/>
       <c r="D100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101"/>
       <c r="D101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C102"/>
       <c r="D102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C103"/>
       <c r="D103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C104"/>
       <c r="D104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105"/>
       <c r="D105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>2</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
